--- a/data/xlsx/lenses-gini.xlsx
+++ b/data/xlsx/lenses-gini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18375" windowHeight="8850" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="4470" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -133,31 +133,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +526,7 @@
   <dimension ref="A2:D26"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +538,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -914,7 +898,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +920,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -959,7 +943,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
@@ -985,7 +969,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
@@ -1011,7 +995,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
@@ -1037,7 +1021,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1063,7 +1047,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1089,7 +1073,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
@@ -1115,7 +1099,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -1141,7 +1125,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -1167,7 +1151,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -1193,7 +1177,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
@@ -1219,7 +1203,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
@@ -1245,7 +1229,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
@@ -1271,7 +1255,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
@@ -1297,7 +1281,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
@@ -1323,7 +1307,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
@@ -1349,7 +1333,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
@@ -1375,7 +1359,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
@@ -1401,7 +1385,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B20" t="s">
@@ -1427,7 +1411,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
@@ -1453,7 +1437,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
@@ -1479,7 +1463,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
@@ -1505,7 +1489,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
@@ -1531,7 +1515,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
@@ -1557,7 +1541,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
@@ -1626,10 +1610,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1649,10 +1633,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1675,10 +1659,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
@@ -1701,10 +1685,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
@@ -1727,10 +1711,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -1753,10 +1737,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1779,10 +1763,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -1805,10 +1789,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -1831,10 +1815,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
@@ -1857,10 +1841,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
@@ -1883,10 +1867,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
@@ -1909,10 +1893,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
@@ -1935,10 +1919,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
@@ -1961,10 +1945,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="A15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
@@ -1987,10 +1971,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
@@ -2013,10 +1997,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
@@ -2039,10 +2023,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
@@ -2065,10 +2049,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
@@ -2091,10 +2075,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
@@ -2117,10 +2101,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
@@ -2143,10 +2127,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -2169,10 +2153,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="A23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
@@ -2195,10 +2179,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="A24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
@@ -2221,10 +2205,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
@@ -2247,10 +2231,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
@@ -2293,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H31" sqref="A1:H31"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2316,13 +2300,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2339,13 +2323,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -2365,13 +2349,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -2391,13 +2375,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
@@ -2417,13 +2401,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
@@ -2443,13 +2427,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
@@ -2469,13 +2453,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
@@ -2495,13 +2479,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
@@ -2521,13 +2505,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
@@ -2547,13 +2531,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
@@ -2573,13 +2557,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
@@ -2599,13 +2583,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
@@ -2625,13 +2609,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -2651,13 +2635,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
@@ -2677,13 +2661,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
@@ -2703,13 +2687,13 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
@@ -2729,13 +2713,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
@@ -2755,13 +2739,13 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
@@ -2781,13 +2765,13 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D20" t="s">
@@ -2807,13 +2791,13 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
@@ -2833,13 +2817,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
@@ -2859,13 +2843,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
@@ -2885,13 +2869,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D24" t="s">
@@ -2911,13 +2895,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
@@ -2937,13 +2921,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
@@ -3004,13 +2988,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3027,13 +3011,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -3053,13 +3037,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -3079,13 +3063,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -3105,13 +3089,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -3131,13 +3115,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -3157,13 +3141,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -3183,13 +3167,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
@@ -3209,13 +3193,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -3235,13 +3219,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
@@ -3261,13 +3245,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -3287,13 +3271,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
@@ -3313,13 +3297,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -3330,85 +3314,85 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
@@ -3441,7 +3425,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,13 +3447,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3486,13 +3470,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -3512,13 +3496,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -3538,13 +3522,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -3564,13 +3548,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -3590,13 +3574,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -3616,13 +3600,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -3642,13 +3626,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="s">
@@ -3668,13 +3652,13 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
@@ -3694,13 +3678,13 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
@@ -3720,13 +3704,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
@@ -3746,13 +3730,13 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
@@ -3772,13 +3756,13 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="s">
@@ -3789,85 +3773,85 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
@@ -3925,13 +3909,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3948,13 +3932,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="A3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -3974,13 +3958,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -4000,13 +3984,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
@@ -4026,13 +4010,13 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
@@ -4052,13 +4036,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
@@ -4078,13 +4062,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
@@ -4095,133 +4079,133 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="C16" s="9"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="C18" s="9"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
